--- a/StructureDefinition-ext-R5-ChargeItemDefinition.applicability.xlsx
+++ b/StructureDefinition-ext-R5-ChargeItemDefinition.applicability.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -348,7 +348,7 @@
   </si>
   <si>
     <t>Element `ChargeItemDefinition.applicability.condition` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a component extension (e.g., if this element is used as a content reference).
-Element `ChargeItemDefinition.applicability.condition` is mapped to FHIR R4 structure `ChargeItemDefinition`, but has no target element specified.</t>
+Element `ChargeItemDefinition.applicability.condition` is will have a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.id</t>
@@ -434,7 +434,7 @@
   </si>
   <si>
     <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the charge item definition are or are expected to be used instead. Element `ChargeItemDefinition.applicability.effectivePeriod` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a component extension (e.g., if this element is used as a content reference).
-Element `ChargeItemDefinition.applicability.effectivePeriod` is mapped to FHIR R4 structure `ChargeItemDefinition`, but has no target element specified.</t>
+Element `ChargeItemDefinition.applicability.effectivePeriod` is will have a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.id</t>
@@ -466,7 +466,7 @@
   </si>
   <si>
     <t>Element `ChargeItemDefinition.applicability.relatedArtifact` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a component extension (e.g., if this element is used as a content reference).
-Element `ChargeItemDefinition.applicability.relatedArtifact` is mapped to FHIR R4 structure `ChargeItemDefinition`, but has no target element specified.</t>
+Element `ChargeItemDefinition.applicability.relatedArtifact` is will have a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.id</t>

--- a/StructureDefinition-ext-R5-ChargeItemDefinition.applicability.xlsx
+++ b/StructureDefinition-ext-R5-ChargeItemDefinition.applicability.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `ChargeItemDefinition.applicability` 0..* `BackboneElement`
 *  R4: `ChargeItemDefinition.applicability` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ChargeItemDefinition.applicability` is mapped to FHIR R4 element `ChargeItemDefinition.applicability`.</t>
+Element `ChargeItemDefinition.applicability` has is mapped to FHIR R4 element `ChargeItemDefinition.applicability`, but has no comparisons.
+Note available implied context: `ChargeItemDefinition.propertyGroup.applicability` because `ChargeItemDefinition.propertyGroup.applicability` is defined as a content reference to `ChargeItemDefinition.applicability`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -347,8 +348,8 @@
 FHIRPath expressions can traverse into other resources linked from the ChargeItem resource, however, testing rules such as that a billing code may be billed only once per encounter need a wider scope. In such scenarios, CQL may be the appropriate choice.</t>
   </si>
   <si>
-    <t>Element `ChargeItemDefinition.applicability.condition` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a component extension (e.g., if this element is used as a content reference).
-Element `ChargeItemDefinition.applicability.condition` is will have a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+    <t>Element `ChargeItemDefinition.applicability.condition` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a cross-version extension.
+Element `ChargeItemDefinition.applicability.condition` has a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.id</t>
@@ -395,6 +396,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability.condition</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -433,8 +437,8 @@
     <t>The effective period for a charge item definition  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
   </si>
   <si>
-    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the charge item definition are or are expected to be used instead. Element `ChargeItemDefinition.applicability.effectivePeriod` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a component extension (e.g., if this element is used as a content reference).
-Element `ChargeItemDefinition.applicability.effectivePeriod` is will have a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the charge item definition are or are expected to be used instead. Element `ChargeItemDefinition.applicability.effectivePeriod` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a cross-version extension.
+Element `ChargeItemDefinition.applicability.effectivePeriod` has a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.id</t>
@@ -444,6 +448,9 @@
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability.effectivePeriod</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.value[x]</t>
@@ -465,8 +472,8 @@
     <t>Reference to / quotation of the external source of the group of properties.</t>
   </si>
   <si>
-    <t>Element `ChargeItemDefinition.applicability.relatedArtifact` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a component extension (e.g., if this element is used as a content reference).
-Element `ChargeItemDefinition.applicability.relatedArtifact` is will have a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+    <t>Element `ChargeItemDefinition.applicability.relatedArtifact` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a cross-version extension.
+Element `ChargeItemDefinition.applicability.relatedArtifact` has a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.id</t>
@@ -476,6 +483,9 @@
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability.relatedArtifact</t>
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.value[x]</t>
@@ -1642,7 +1652,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1684,7 +1694,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1699,15 +1709,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1730,7 +1740,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1789,7 +1799,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1801,21 +1811,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1840,16 +1850,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1918,7 +1928,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2021,7 +2031,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2126,7 +2136,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2169,7 +2179,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2211,7 +2221,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2226,15 +2236,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2257,16 +2267,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2316,7 +2326,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2328,21 +2338,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2367,14 +2377,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2443,7 +2453,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2546,7 +2556,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2651,7 +2661,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2694,7 +2704,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2736,7 +2746,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -2751,15 +2761,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2782,13 +2792,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2839,7 +2849,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2851,18 +2861,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2944,7 +2954,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>87</v>
@@ -2959,15 +2969,15 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2990,13 +3000,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3047,7 +3057,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3059,10 +3069,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ChargeItemDefinition.applicability.xlsx
+++ b/StructureDefinition-ext-R5-ChargeItemDefinition.applicability.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-ChargeItemDefinition.applicability.xlsx
+++ b/StructureDefinition-ext-R5-ChargeItemDefinition.applicability.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="151">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `ChargeItemDefinition.applicability` 0..* `BackboneElement`
 *  R4: `ChargeItemDefinition.applicability` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ChargeItemDefinition.applicability` has is mapped to FHIR R4 element `ChargeItemDefinition.applicability`, but has no comparisons.
+Element `ChargeItemDefinition.applicability` is mapped to FHIR R4 element `ChargeItemDefinition.applicability` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note available implied context: `ChargeItemDefinition.propertyGroup.applicability` because `ChargeItemDefinition.propertyGroup.applicability` is defined as a content reference to `ChargeItemDefinition.applicability`.</t>
   </si>
   <si>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -348,8 +348,8 @@
 FHIRPath expressions can traverse into other resources linked from the ChargeItem resource, however, testing rules such as that a billing code may be billed only once per encounter need a wider scope. In such scenarios, CQL may be the appropriate choice.</t>
   </si>
   <si>
-    <t>Element `ChargeItemDefinition.applicability.condition` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a cross-version extension.
-Element `ChargeItemDefinition.applicability.condition` has a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+    <t>Element `ChargeItemDefinition.applicability.condition` has a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.
+Note available implied context: `ChargeItemDefinition.propertyGroup.applicability` because `ChargeItemDefinition.propertyGroup.applicability` is defined via a content reference to `ChargeItemDefinition.applicability`.</t>
   </si>
   <si>
     <t>Extension.extension:condition.id</t>
@@ -396,9 +396,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability.condition</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -437,8 +434,8 @@
     <t>The effective period for a charge item definition  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
   </si>
   <si>
-    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the charge item definition are or are expected to be used instead. Element `ChargeItemDefinition.applicability.effectivePeriod` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a cross-version extension.
-Element `ChargeItemDefinition.applicability.effectivePeriod` has a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the charge item definition are or are expected to be used instead. Element `ChargeItemDefinition.applicability.effectivePeriod` has a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.
+Note available implied context: `ChargeItemDefinition.propertyGroup.applicability` because `ChargeItemDefinition.propertyGroup.applicability` is defined via a content reference to `ChargeItemDefinition.applicability`.</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.id</t>
@@ -448,9 +445,6 @@
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability.effectivePeriod</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.value[x]</t>
@@ -472,8 +466,8 @@
     <t>Reference to / quotation of the external source of the group of properties.</t>
   </si>
   <si>
-    <t>Element `ChargeItemDefinition.applicability.relatedArtifact` is part of an existing definition because parent element `ChargeItemDefinition.applicability` requires a cross-version extension.
-Element `ChargeItemDefinition.applicability.relatedArtifact` has a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.</t>
+    <t>Element `ChargeItemDefinition.applicability.relatedArtifact` has a context of ChargeItemDefinition.applicability based on following the parent source element upwards and mapping to `ChargeItemDefinition`.
+Note available implied context: `ChargeItemDefinition.propertyGroup.applicability` because `ChargeItemDefinition.propertyGroup.applicability` is defined via a content reference to `ChargeItemDefinition.applicability`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.id</t>
@@ -483,9 +477,6 @@
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItemDefinition.applicability.relatedArtifact</t>
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.value[x]</t>
@@ -1652,72 +1643,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1740,7 +1731,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1799,33 +1790,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1850,16 +1841,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1928,7 +1919,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2031,7 +2022,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2136,7 +2127,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2179,7 +2170,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2221,30 +2212,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2267,16 +2258,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2326,33 +2317,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2377,14 +2368,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2453,7 +2444,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2556,7 +2547,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2661,7 +2652,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2704,7 +2695,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2746,30 +2737,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2792,13 +2783,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2849,30 +2840,30 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2954,30 +2945,30 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3000,13 +2991,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3057,22 +3048,22 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
